--- a/bmi.xlsx
+++ b/bmi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weron\PycharmProjects\pythonProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weron\PycharmProjects\pythonProject4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B1A9BD-77FF-4B7E-AF05-1CC577745682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1232FB-62A0-4F8F-9E8B-9E169AF015D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09038599-84BC-4D03-AB44-CBA434AB89E5}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{09038599-84BC-4D03-AB44-CBA434AB89E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>osoba</t>
   </si>
@@ -102,54 +102,6 @@
   </si>
   <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
-    <t>1.74</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>1.77</t>
   </si>
   <si>
     <t>U</t>
@@ -510,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154EA73C-A163-4FE4-A775-E78046B3344A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,9 +489,7 @@
       <c r="C2" s="3">
         <v>1.5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -551,9 +501,7 @@
       <c r="C3" s="3">
         <v>1.6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -565,9 +513,7 @@
       <c r="C4" s="3">
         <v>1.7</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -579,9 +525,7 @@
       <c r="C5" s="3">
         <v>1.8</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -593,9 +537,7 @@
       <c r="C6" s="3">
         <v>1.9</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -607,9 +549,7 @@
       <c r="C7" s="3">
         <v>1.85</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -621,9 +561,7 @@
       <c r="C8" s="3">
         <v>1.89</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -635,9 +573,7 @@
       <c r="C9" s="3">
         <v>1.6</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -649,9 +585,7 @@
       <c r="C10" s="3">
         <v>1.55</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -663,9 +597,7 @@
       <c r="C11" s="3">
         <v>1.73</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -677,9 +609,7 @@
       <c r="C12" s="3">
         <v>1.79</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -691,9 +621,7 @@
       <c r="C13" s="3">
         <v>1.99</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -705,9 +633,7 @@
       <c r="C14" s="3">
         <v>1.8</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -719,9 +645,7 @@
       <c r="C15" s="3">
         <v>1.6</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -733,9 +657,7 @@
       <c r="C16" s="3">
         <v>1.74</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -747,9 +669,7 @@
       <c r="C17" s="3">
         <v>1.67</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -761,9 +681,7 @@
       <c r="C18" s="3">
         <v>1.78</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -775,9 +693,7 @@
       <c r="C19" s="3">
         <v>1.57</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -789,13 +705,11 @@
       <c r="C20" s="3">
         <v>1.8</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>56</v>
@@ -803,9 +717,7 @@
       <c r="C21" s="3">
         <v>1.77</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
